--- a/ValueSet-SaraAlertLanguage.xlsx
+++ b/ValueSet-SaraAlertLanguage.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Tags for the Ident" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Tags for the Ide" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SaraAlertLanguage.xlsx
+++ b/ValueSet-SaraAlertLanguage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
